--- a/artfynd/A 61236-2022.xlsx
+++ b/artfynd/A 61236-2022.xlsx
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>574678.3109281575</v>
+        <v>574678</v>
       </c>
       <c r="R2" t="n">
-        <v>6299720.462394238</v>
+        <v>6299720</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -762,19 +762,9 @@
           <t>2022-10-06</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2022-10-06</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
